--- a/biology/Zoologie/Hermathena_candidata/Hermathena_candidata.xlsx
+++ b/biology/Zoologie/Hermathena_candidata/Hermathena_candidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermathena candidata est une espèce de papillons, de la famille  des Riodinidae.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euselasia zena a été décrit par William Chapman Hewitson en 1874[1]
-Sous-espèces
-Hermathena candidata candidata
-Hermathena candidata columba Stichel, 1910; présent en Colombie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia zena a été décrit par William Chapman Hewitson en 1874
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hermathena candidata est un papillon de couleur blanche, d'une envergure d'environ 35 mm et orné sur le revers de taches marron foncé marginales, aux antérieures une à l'apex, une au milieu du bord costal et deux sur le bord externe, aux ailes postérieures une à l'apex et une série de points marron marginaux. Sur le dessus ces taches sont visibles en transparence[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hermathena candidata candidata
+Hermathena candidata columba Stichel, 1910; présent en Colombie.</t>
         </is>
       </c>
     </row>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-les plantes hôtes de sa chenille sont des Vriesia[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermathena candidata est un papillon de couleur blanche, d'une envergure d'environ 35 mm et orné sur le revers de taches marron foncé marginales, aux antérieures une à l'apex, une au milieu du bord costal et deux sur le bord externe, aux ailes postérieures une à l'apex et une série de points marron marginaux. Sur le dessus ces taches sont visibles en transparence.
 </t>
         </is>
       </c>
@@ -604,13 +623,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">les plantes hôtes de sa chenille sont des Vriesia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hermathena_candidata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermathena_candidata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hermathena candidata est présent, sous forme de plusieurs isolats proches des cotes, au Costa Rica, en Colombie, en Équateur, en Bolivie,  en Guyana et en Guyane[1],[2].
-Biotope</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermathena candidata est présent, sous forme de plusieurs isolats proches des cotes, au Costa Rica, en Colombie, en Équateur, en Bolivie,  en Guyana et en Guyane,.
+</t>
         </is>
       </c>
     </row>
